--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3376323.10870093</v>
+        <v>3373946.481753564</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8063697.700678563</v>
+        <v>8063697.700678562</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>245.7681201895053</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.2636416850876</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>215.0160242315272</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202789</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>30.22039416206315</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.1874525866115</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>39.45885325319753</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.707151258119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>63.59441785694243</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>70.90462188432832</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.5971804138459</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>64.50612826256102</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9815576456779</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>20.43112068613155</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289887</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>123.9815576456784</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1454.537269016651</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1454.537269016651</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>1096.271570409901</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>710.4833178116564</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>299.4974130220489</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056585</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056585</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.137109080773</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4395,28 +4395,28 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>870.329241545892</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
         <v>1867.770244284151</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.8276219385415</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>619.8914390106346</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1419.258216810329</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1419.258216810329</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.258216810329</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>1419.258216810329</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X4" t="n">
-        <v>1191.268665912311</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>970.4760867687812</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>848.1875530107168</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>479.2250360703051</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>479.2250360703051</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="E5" t="n">
-        <v>93.43678347206082</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,46 +4571,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.92672505065</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.787393074839</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.9577966591559</v>
+        <v>196.9593607670921</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>896.0145465323097</v>
       </c>
       <c r="W7" t="n">
-        <v>1401.388391530943</v>
+        <v>606.5973764953492</v>
       </c>
       <c r="X7" t="n">
-        <v>1173.398840632926</v>
+        <v>378.6078255973318</v>
       </c>
       <c r="Y7" t="n">
-        <v>952.6062614893956</v>
+        <v>378.6078255973318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>861.3216348137591</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C8" t="n">
-        <v>492.3591178733474</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>134.0934192665969</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>134.0934192665969</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>127.1479185173934</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>115.4835722820864</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>115.4835722820864</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816097</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923563</v>
@@ -4820,34 +4820,34 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2237.137437478146</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320765</v>
+        <v>1906.074550134575</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050651</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.460966789571</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137591</v>
+        <v>1553.305894864461</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100999</v>
+        <v>1117.223096727984</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.288414758779</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>1281.871244721818</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.881693823801</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.0891146802707</v>
+        <v>349.6600800990973</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.122646505557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2497.745796000625</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,25 +5413,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>219.0505596597677</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277355</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>363.7369613277355</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>196.5408620426154</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854707</v>
@@ -7369,13 +7369,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15.64270034434963</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>129.7511347056862</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621889</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>231.2582814363237</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019034</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621888</v>
+        <v>138.9393975111044</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.26924431238921e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.54258064659093</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.2652634529486</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.63391537253398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="10">
@@ -26317,43 +26317,43 @@
         <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,31 +26427,31 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719689</v>
+        <v>7507.368461719732</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719651</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171962</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719668</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.36846171964</v>
+        <v>7507.368461719572</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26503,7 +26503,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601865.8266846545</v>
+        <v>-601865.826684654</v>
       </c>
       <c r="C6" t="n">
+        <v>512885.9568912652</v>
+      </c>
+      <c r="D6" t="n">
         <v>512885.9568912654</v>
       </c>
-      <c r="D6" t="n">
-        <v>512885.9568912656</v>
-      </c>
       <c r="E6" t="n">
-        <v>110316.5998108327</v>
+        <v>110281.8618853969</v>
       </c>
       <c r="F6" t="n">
-        <v>617802.0414353785</v>
+        <v>617767.3035099426</v>
       </c>
       <c r="G6" t="n">
-        <v>617802.0414353787</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="H6" t="n">
-        <v>617802.0414353784</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="I6" t="n">
-        <v>617802.0414353786</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="J6" t="n">
-        <v>450196.8636253958</v>
+        <v>450162.1256999602</v>
       </c>
       <c r="K6" t="n">
-        <v>617802.0414353786</v>
+        <v>617767.3035099428</v>
       </c>
       <c r="L6" t="n">
-        <v>617802.0414353785</v>
+        <v>617767.3035099432</v>
       </c>
       <c r="M6" t="n">
-        <v>485194.7477064515</v>
+        <v>485160.0097810163</v>
       </c>
       <c r="N6" t="n">
-        <v>617802.0414353787</v>
+        <v>617767.3035099425</v>
       </c>
       <c r="O6" t="n">
-        <v>617802.0414353783</v>
+        <v>617767.3035099432</v>
       </c>
       <c r="P6" t="n">
-        <v>617802.0414353787</v>
+        <v>617767.3035099428</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,10 +26990,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>165.7795825834487</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.4674589933815</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5.732671765684756</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670092</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>376.6556515796483</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>15.47073239362228</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.7879678454303</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.81584707847205</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.115494815528066</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>52.54759351446602</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.70941963095828</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.631515061267</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.868909745143369e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.8560084902135</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197787</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>186.6878763515707</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,22 +33731,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33758,7 +33758,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868572</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359088</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34056,31 +34056,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
         <v>0.1345549672467222</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,28 +34445,28 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>313.3230609821999</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>520.9482342985601</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>622.4553810291977</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980265</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35036,7 +35036,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560636</v>
       </c>
       <c r="L9" t="n">
-        <v>640.584832100039</v>
+        <v>436.6197581489548</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0158803980272</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.87423440419198</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753343</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>44.0916319071262</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525754</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
